--- a/DnD_Insults/data/Insults.xlsx
+++ b/DnD_Insults/data/Insults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\shiny-server\DnD_Insults\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="D954AC8449FDB253FADFA499E1ED8189364B648F" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{1FA00880-4612-44E9-9B5E-6223D3DC3FA5}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="D954AC8449FDB253FADFA499E1ED8189364B648F" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{1B8CA603-C229-49BE-BC0A-1F1347C956F6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{A6EF34AD-0B09-4017-806A-01A07776BC72}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="5" xr2:uid="{A6EF34AD-0B09-4017-806A-01A07776BC72}"/>
   </bookViews>
   <sheets>
     <sheet name="Original List" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
   <si>
     <t>What smells worse than a goblin? Oh yeah, you!</t>
   </si>
@@ -540,6 +540,12 @@
   </si>
   <si>
     <t>mother fucker</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Punctuation</t>
   </si>
 </sst>
 </file>
@@ -582,17 +588,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -727,69 +785,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FED0D65A-5E93-4F9F-9117-99BAF535F5E2}" name="Table1" displayName="Table1" ref="A1:B101" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FED0D65A-5E93-4F9F-9117-99BAF535F5E2}" name="Table1" displayName="Table1" ref="A1:B101" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:B101" xr:uid="{C86B4D02-E00F-4DE9-B8FA-DDC5149713A5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{56B0118F-4B9D-47D0-9ABB-1D76C50CE7B8}" name="Roll" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{51BCE4A8-3989-4601-B639-1355933FE957}" name="Insult" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{56B0118F-4B9D-47D0-9ABB-1D76C50CE7B8}" name="Roll" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{51BCE4A8-3989-4601-B639-1355933FE957}" name="Insult" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6901787F-98D0-49B3-A19C-AEF8E44E12C8}" name="Table14" displayName="Table14" ref="A1:B91" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6901787F-98D0-49B3-A19C-AEF8E44E12C8}" name="Table14" displayName="Table14" ref="A1:B91" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:B91" xr:uid="{C86B4D02-E00F-4DE9-B8FA-DDC5149713A5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F308E3B3-88BB-4A0F-A8FE-A6A7F956EBBE}" name="Roll" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{5A175AED-9CD5-4C15-9422-D238E3C77047}" name="Insult" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F308E3B3-88BB-4A0F-A8FE-A6A7F956EBBE}" name="Roll" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{5A175AED-9CD5-4C15-9422-D238E3C77047}" name="Insult" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{93AD483D-1976-4A4C-8445-71B62B21BE25}" name="Table6" displayName="Table6" ref="A1:A4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{93AD483D-1976-4A4C-8445-71B62B21BE25}" name="Table6" displayName="Table6" ref="A1:A4" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="A1:A4" xr:uid="{1EA4B117-CAD2-41F9-A7FE-72E4F66E887E}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1C8C9B64-C2CE-48F4-95D8-A7FD5D163E0A}" name="First_Phrase"/>
+    <tableColumn id="1" xr3:uid="{1C8C9B64-C2CE-48F4-95D8-A7FD5D163E0A}" name="First_Phrase" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44820505-B635-4403-AA07-E62418287BF7}" name="Table2" displayName="Table2" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{97173E1C-177E-4799-B251-039C8AEC6FC1}"/>
-  <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{566BB995-2589-42A6-89CB-39906C2D1B72}" name="Object"/>
-    <tableColumn id="1" xr3:uid="{1C91502B-0042-4416-9AA6-CCCF40AA188F}" name="Action"/>
-    <tableColumn id="2" xr3:uid="{4A899E8F-F906-424F-9ED1-FF6C965F4D30}" name="State"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44820505-B635-4403-AA07-E62418287BF7}" name="Table2" displayName="Table2" ref="A1:D8" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A1:D8" xr:uid="{97173E1C-177E-4799-B251-039C8AEC6FC1}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{566BB995-2589-42A6-89CB-39906C2D1B72}" name="Object" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{1C91502B-0042-4416-9AA6-CCCF40AA188F}" name="Action" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{4A899E8F-F906-424F-9ED1-FF6C965F4D30}" name="State" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{17EA5433-E6E5-4174-8ABE-02561A5113F6}" name="Punctuation" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE69EDAC-6BD3-44C8-A5AF-4FE488C1B7D0}" name="Table25" displayName="Table25" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{FDB59B67-D2F0-4DA6-8164-508B6499F96C}"/>
-  <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{045D3CE6-F299-4D54-917A-0AE124F17CE9}" name="Object"/>
-    <tableColumn id="1" xr3:uid="{05DBD605-3CBD-46B2-B8E1-B1C22CFCF3F2}" name="Adjective"/>
-    <tableColumn id="2" xr3:uid="{8AD6A422-69CA-492C-9EF5-C09D79E1A66D}" name="Noun"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE69EDAC-6BD3-44C8-A5AF-4FE488C1B7D0}" name="Table25" displayName="Table25" ref="A1:D7" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:D7" xr:uid="{FDB59B67-D2F0-4DA6-8164-508B6499F96C}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{045D3CE6-F299-4D54-917A-0AE124F17CE9}" name="Object" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{05DBD605-3CBD-46B2-B8E1-B1C22CFCF3F2}" name="Adjective" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8AD6A422-69CA-492C-9EF5-C09D79E1A66D}" name="Noun" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CCF6EF11-E427-4859-84B8-BD371AD384D5}" name="Punctuation" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{045BD102-2A8C-4D9E-AB57-A69BEEAFF8B1}" name="Table8" displayName="Table8" ref="A1:D7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{045BD102-2A8C-4D9E-AB57-A69BEEAFF8B1}" name="Table8" displayName="Table8" ref="A1:D7" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:D7" xr:uid="{D9E92343-A044-4F36-B76F-2344B769DDFA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CEBFFE75-715E-41D4-B92D-A1304D4DDBAE}" name="Verb"/>
-    <tableColumn id="2" xr3:uid="{53E8914B-8D04-454F-9810-EC00A359A1B5}" name="noun"/>
-    <tableColumn id="3" xr3:uid="{9223EE22-AEE1-48CD-AB4B-CD7F73CD210D}" name="adjective"/>
-    <tableColumn id="4" xr3:uid="{E8B7E425-CFD2-4E65-B60A-1A097B8F02F3}" name="ending"/>
+    <tableColumn id="1" xr3:uid="{CEBFFE75-715E-41D4-B92D-A1304D4DDBAE}" name="Verb" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{53E8914B-8D04-454F-9810-EC00A359A1B5}" name="noun" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9223EE22-AEE1-48CD-AB4B-CD7F73CD210D}" name="adjective" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E8B7E425-CFD2-4E65-B60A-1A097B8F02F3}" name="ending" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2676,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AB4EB6-F8AB-48B7-A893-66C64F096A3A}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2687,25 +2747,28 @@
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>124</v>
       </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2717,15 +2780,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864ED301-E378-4FD9-95AA-41B8637D2599}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -2735,82 +2798,106 @@
       <c r="C1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D7" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>156</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2823,15 +2910,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1162D4-AF51-4C0D-8A49-BFB4E0E3DB58}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -2841,71 +2928,92 @@
       <c r="C1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>169</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2920,8 +3028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2D37D4-D013-48C8-B452-FA6B3AEC29E6}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2947,86 +3055,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>165</v>
       </c>
     </row>

--- a/DnD_Insults/data/Insults.xlsx
+++ b/DnD_Insults/data/Insults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\shiny-server\DnD_Insults\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="D954AC8449FDB253FADFA499E1ED8189364B648F" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{1B8CA603-C229-49BE-BC0A-1F1347C956F6}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="D954AC8449FDB253FADFA499E1ED8189364B648F" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{F9E1ECC4-6EA3-45EB-86CB-67D0DAB5D692}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="5" xr2:uid="{A6EF34AD-0B09-4017-806A-01A07776BC72}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{A6EF34AD-0B09-4017-806A-01A07776BC72}"/>
   </bookViews>
   <sheets>
     <sheet name="Original List" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="172">
   <si>
     <t>What smells worse than a goblin? Oh yeah, you!</t>
   </si>
@@ -449,9 +449,6 @@
     <t>smelt</t>
   </si>
   <si>
-    <t>witnessned</t>
-  </si>
-  <si>
     <t>known</t>
   </si>
   <si>
@@ -546,6 +543,9 @@
   </si>
   <si>
     <t>Punctuation</t>
+  </si>
+  <si>
+    <t>witnessed</t>
   </si>
 </sst>
 </file>
@@ -2782,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864ED301-E378-4FD9-95AA-41B8637D2599}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2799,7 +2799,7 @@
         <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2826,9 +2826,7 @@
       <c r="C3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2840,9 +2838,7 @@
       <c r="C4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -2854,51 +2850,43 @@
       <c r="C5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2913,7 +2901,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2929,7 +2917,7 @@
         <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2943,7 +2931,7 @@
         <v>132</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2956,9 +2944,7 @@
       <c r="C3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2970,9 +2956,7 @@
       <c r="C4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -2982,11 +2966,9 @@
         <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>170</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2996,11 +2978,9 @@
         <v>128</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -3010,11 +2990,9 @@
         <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>170</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3028,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2D37D4-D013-48C8-B452-FA6B3AEC29E6}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3045,13 +3023,13 @@
         <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3059,13 +3037,13 @@
         <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3073,13 +3051,13 @@
         <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3087,55 +3065,55 @@
         <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/DnD_Insults/data/Insults.xlsx
+++ b/DnD_Insults/data/Insults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\shiny-server\DnD_Insults\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="D954AC8449FDB253FADFA499E1ED8189364B648F" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{F9E1ECC4-6EA3-45EB-86CB-67D0DAB5D692}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="D954AC8449FDB253FADFA499E1ED8189364B648F" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{D82611AA-0908-42DA-8FE7-3176125DD8C1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{A6EF34AD-0B09-4017-806A-01A07776BC72}"/>
   </bookViews>
@@ -470,12 +470,6 @@
     <t>adjective</t>
   </si>
   <si>
-    <t>uglier</t>
-  </si>
-  <si>
-    <t>smellier</t>
-  </si>
-  <si>
     <t>louder</t>
   </si>
   <si>
@@ -509,9 +503,6 @@
     <t>larger</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>than your momma</t>
   </si>
   <si>
@@ -546,6 +537,15 @@
   </si>
   <si>
     <t>witnessed</t>
+  </si>
+  <si>
+    <t>less smelly</t>
+  </si>
+  <si>
+    <t>less ugly</t>
+  </si>
+  <si>
+    <t>stronger</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +2783,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2799,7 +2799,7 @@
         <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2857,7 +2857,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>120</v>
@@ -2869,7 +2869,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>126</v>
@@ -2881,10 +2881,10 @@
         <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -2917,7 +2917,7 @@
         <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2931,7 +2931,7 @@
         <v>132</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2966,7 +2966,7 @@
         <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -2978,7 +2978,7 @@
         <v>128</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -2990,7 +2990,7 @@
         <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -3007,7 +3007,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3029,7 +3029,7 @@
         <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3040,10 +3040,10 @@
         <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3054,10 +3054,10 @@
         <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3068,24 +3068,24 @@
         <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3093,27 +3093,27 @@
         <v>139</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
